--- a/biology/Botanique/Voile_partiel/Voile_partiel.xlsx
+++ b/biology/Botanique/Voile_partiel/Voile_partiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mycologie, le voile partiel, appelé aussi voile secondaire, est un terme collectif qui a été appliqué à tous les types d'anneaux, à l'origine une couche de tissu qui enveloppe ou enveloppait dans la jeunesse (on parle de primordiums) les lamelles ou les tubes de l'hyménium du sporophore, chez certaines espèces de champignons[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mycologie, le voile partiel, appelé aussi voile secondaire, est un terme collectif qui a été appliqué à tous les types d'anneaux, à l'origine une couche de tissu qui enveloppe ou enveloppait dans la jeunesse (on parle de primordiums) les lamelles ou les tubes de l'hyménium du sporophore, chez certaines espèces de champignons.
 Il ne faut pas confondre le voile partiel avec le voile universel, ou voile général qui est l'enveloppe complète du sporophore.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce voile réunit la marge de l'hyménophore (chapeau) au stipe chez le primordium et protégeant l’hyménium jeune[2]. Il laisse souvent un anneau (voile membraneux) ou une cortine (voile filamenteux)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce voile réunit la marge de l'hyménophore (chapeau) au stipe chez le primordium et protégeant l’hyménium jeune. Il laisse souvent un anneau (voile membraneux) ou une cortine (voile filamenteux).
 Le voile partiel peut subsister, après la croissance du sporophore, sous la forme d'anneau sur le stipe et d'une frange appendiculée sur la marge de l'hyménophore.
 Se séparant de l'hyménium à mesure que le champignon croît, le voile partiel finit par se déchirer, laissant un anneau autour du pied. Cet anneau peut être simple ou double (le point de contact de deux voiles d'origine différentes), il peut prendre la forme d'une bague, de bracelets, d'une jupe, d'une frange, d'une toile d'araignée et rester intact ou réduit à des fragments ou encore disparaître.
 L'armille est difficile à interpréter. Il pourrait s'agir d'un cas particulier d'anneau (voile partiel), ou comme un manchon dérivant du voile général, engainant le pied et s'épanouissant au sommet en une collerette.
@@ -547,7 +561,9 @@
           <t>Voile partiel chez les basidiomycètes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les Amanitaceae le voile partiel protège les lames et va subsister en laissant une marge appendiculée et un anneau.
 Chez les Cortinarius, le voile partiel filamenteux va tendre à disparaître.
